--- a/Tailoring/BCIO_Tailoring.xlsx
+++ b/Tailoring/BCIO_Tailoring.xlsx
@@ -705,7 +705,11 @@
       <c r="T4" s="2" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr"/>
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050896</t>
+        </is>
+      </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
           <t>tailoring BCI to an individual</t>
@@ -716,12 +720,12 @@
           <t>behaviour change intervention tailoring</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr"/>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="D5" s="2" t="inlineStr">
         <is>
           <t>Behaviour change intervention tailoring to the characteristics of an individual.</t>
         </is>
       </c>
+      <c r="E5" s="2" t="inlineStr"/>
       <c r="F5" s="2" t="inlineStr"/>
       <c r="G5" s="2" t="inlineStr"/>
       <c r="H5" s="2" t="inlineStr"/>
@@ -733,7 +737,11 @@
           <t>Tailoring</t>
         </is>
       </c>
-      <c r="M5" s="2" t="inlineStr"/>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="N5" s="2" t="inlineStr"/>
       <c r="O5" s="2" t="inlineStr">
         <is>
